--- a/progress/12-week-progress-tracker.xlsx
+++ b/progress/12-week-progress-tracker.xlsx
@@ -491,7 +491,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>❌ Not Started</t>
+          <t>✅ Done</t>
         </is>
       </c>
     </row>
